--- a/dist/個人用設定.xlsx
+++ b/dist/個人用設定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DQM\学習\openpyxl\インスト\pythonOpenpyxlのまとめ\SelfCreate\mass_csv_to_igor\Igor-xlx-igor-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DQM\学習\Igor提携\qulee_2_Igor\Qulee_2_Igor\Igor-xlx-igor-\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3EF1D1-73BF-40A9-B948-7E5DBC3FAE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA6548-3649-4DFC-9F6A-659EB336C04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{3C411347-DA40-4126-8828-BE50FEC82148}"/>
+    <workbookView xWindow="-21708" yWindow="-108" windowWidth="21816" windowHeight="12996" xr2:uid="{3C411347-DA40-4126-8828-BE50FEC82148}"/>
   </bookViews>
   <sheets>
     <sheet name="TraceColor" sheetId="1" r:id="rId1"/>
@@ -436,12 +436,12 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,12 +469,12 @@
         <v>49151</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65535</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -497,7 +497,7 @@
         <v>58981</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -511,7 +511,7 @@
         <v>52428</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -539,7 +539,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -553,7 +553,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -567,7 +567,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -581,7 +581,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -609,7 +609,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -623,7 +623,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -637,7 +637,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -665,7 +665,7 @@
         <v>16385</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -679,7 +679,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -707,7 +707,7 @@
         <v>52428</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -721,7 +721,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -735,7 +735,7 @@
         <v>48059</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -749,7 +749,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -763,7 +763,7 @@
         <v>58982</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -777,7 +777,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -791,7 +791,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -805,7 +805,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -819,7 +819,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -833,7 +833,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -861,7 +861,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -875,7 +875,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -889,7 +889,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -903,7 +903,7 @@
         <v>52428</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -917,7 +917,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -945,7 +945,7 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -959,7 +959,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -973,7 +973,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -987,7 +987,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>55500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>58500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>56797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>

--- a/dist/個人用設定.xlsx
+++ b/dist/個人用設定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DQM\学習\Igor提携\qulee_2_Igor\Qulee_2_Igor\Igor-xlx-igor-\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA6548-3649-4DFC-9F6A-659EB336C04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9F2AFC-7026-4ED9-BF12-E9014864002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21708" yWindow="-108" windowWidth="21816" windowHeight="12996" xr2:uid="{3C411347-DA40-4126-8828-BE50FEC82148}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>65535</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -726,13 +726,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>48059</v>
+        <v>40000</v>
       </c>
       <c r="C21">
-        <v>48059</v>
+        <v>40000</v>
       </c>
       <c r="D21">
-        <v>48059</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
